--- a/data/trans_camb/DC-Clase-trans_camb.xlsx
+++ b/data/trans_camb/DC-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -3,92</t>
+          <t>-12,35; -3,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,57; -0,73</t>
+          <t>-10,54; -0,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 6,63</t>
+          <t>-2,64; 6,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 4,98</t>
+          <t>-8,05; 5,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,81; -3,24</t>
+          <t>-14,55; -3,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 19,13</t>
+          <t>7,52; 19,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,4; -1,94</t>
+          <t>-8,89; -1,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -2,79</t>
+          <t>-10,24; -2,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 11,59</t>
+          <t>3,67; 11,58</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,82; -29,51</t>
+          <t>-66,9; -26,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,01; -5,03</t>
+          <t>-56,58; -6,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 49,13</t>
+          <t>-14,6; 49,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 27,61</t>
+          <t>-33,52; 30,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,45; -16,23</t>
+          <t>-61,34; -19,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,16; 111,61</t>
+          <t>29,42; 112,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,7; -10,97</t>
+          <t>-45,48; -10,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,26; -17,71</t>
+          <t>-51,41; -16,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,44; 73,09</t>
+          <t>18,86; 72,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 2,28</t>
+          <t>-6,26; 2,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -1,35</t>
+          <t>-9,28; -1,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 12,92</t>
+          <t>3,1; 12,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -3,95</t>
+          <t>-16,38; -3,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,66; -6,35</t>
+          <t>-18,42; -6,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 12,47</t>
+          <t>-0,26; 12,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -2,79</t>
+          <t>-10,99; -2,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,85; -5,29</t>
+          <t>-12,93; -5,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 10,78</t>
+          <t>2,05; 10,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 27,92</t>
+          <t>-47,72; 27,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,6; -12,89</t>
+          <t>-69,66; -12,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,67; 144,35</t>
+          <t>22,08; 145,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,43; -13,63</t>
+          <t>-50,59; -13,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,83; -23,93</t>
+          <t>-56,69; -22,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 48,54</t>
+          <t>-0,98; 46,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,78; -15,15</t>
+          <t>-48,18; -13,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,32; -26,78</t>
+          <t>-56,77; -28,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 59,13</t>
+          <t>8,71; 58,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,83; -4,38</t>
+          <t>-12,71; -4,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,62; -7,06</t>
+          <t>-15,91; -7,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 6,06</t>
+          <t>-18,13; 6,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 1,36</t>
+          <t>-16,54; 0,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 4,43</t>
+          <t>-14,99; 4,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 23,86</t>
+          <t>5,06; 24,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,86; -3,89</t>
+          <t>-11,65; -3,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -5,72</t>
+          <t>-13,58; -5,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 8,99</t>
+          <t>-15,97; 8,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,57; -24,14</t>
+          <t>-56,24; -23,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,56; -38,79</t>
+          <t>-69,4; -40,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 31,19</t>
+          <t>-73,35; 32,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,09; 6,05</t>
+          <t>-45,21; 4,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 17,93</t>
+          <t>-42,54; 15,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,61; 96,75</t>
+          <t>12,82; 96,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,02; -18,86</t>
+          <t>-47,06; -18,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,9; -27,47</t>
+          <t>-55,79; -28,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,39; 41,2</t>
+          <t>-61,13; 41,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,81; -5,83</t>
+          <t>-11,67; -5,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,19; -8,49</t>
+          <t>-13,95; -7,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,06</t>
+          <t>-1,06; 5,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,73; -3,46</t>
+          <t>-12,56; -3,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,12; -8,2</t>
+          <t>-17,01; -8,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,7; 44,05</t>
+          <t>4,41; 45,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -5,62</t>
+          <t>-10,89; -5,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,13; -9,17</t>
+          <t>-14,05; -9,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,81; 32,48</t>
+          <t>3,64; 28,42</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,51; -28,52</t>
+          <t>-50,38; -28,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-60,22; -40,72</t>
+          <t>-60,33; -39,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 30,2</t>
+          <t>-4,69; 29,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,39; -12,29</t>
+          <t>-38,61; -11,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-52,69; -29,63</t>
+          <t>-52,93; -30,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,2; 162,59</t>
+          <t>13,81; 158,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,16; -24,62</t>
+          <t>-41,34; -23,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-53,68; -38,12</t>
+          <t>-53,64; -38,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,08; 138,12</t>
+          <t>13,98; 119,67</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,43; -5,66</t>
+          <t>-15,67; -5,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,81; -1,95</t>
+          <t>-11,49; -1,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 10,61</t>
+          <t>-0,64; 10,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 4,35</t>
+          <t>-5,85; 4,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 0,16</t>
+          <t>-9,75; 0,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,31; 34,32</t>
+          <t>13,9; 35,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -0,62</t>
+          <t>-8,23; -0,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,55; -2,75</t>
+          <t>-9,82; -2,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,46; 25,73</t>
+          <t>10,15; 25,79</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,15; -31,4</t>
+          <t>-65,51; -31,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,5; -11,09</t>
+          <t>-50,19; -12,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 61,0</t>
+          <t>-3,22; 63,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 17,2</t>
+          <t>-18,74; 19,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 0,14</t>
+          <t>-32,0; 1,98</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>47,03; 130,78</t>
+          <t>45,46; 133,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-30,83; -2,94</t>
+          <t>-30,86; -3,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,17; -11,51</t>
+          <t>-35,84; -10,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>38,19; 106,22</t>
+          <t>36,87; 109,18</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 4,15</t>
+          <t>-1,79; 3,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 0,99</t>
+          <t>-3,1; 0,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,35; 16,71</t>
+          <t>3,27; 16,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 1,84</t>
+          <t>-5,54; 1,81</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,35; -6,73</t>
+          <t>-13,62; -6,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,28; 13,03</t>
+          <t>5,3; 13,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,54</t>
+          <t>-4,43; 1,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -5,81</t>
+          <t>-11,3; -5,47</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,12; 11,33</t>
+          <t>4,01; 11,33</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-57,51; 334,85</t>
+          <t>-60,17; 326,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-92,01; 126,32</t>
+          <t>-100,0; 115,6</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>55,74; 1143,09</t>
+          <t>62,82; 1266,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 6,9</t>
+          <t>-19,39; 6,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-45,98; -25,81</t>
+          <t>-46,06; -25,6</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,23; 50,61</t>
+          <t>17,91; 51,48</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 7,03</t>
+          <t>-18,38; 6,71</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-47,81; -27,03</t>
+          <t>-47,33; -25,59</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>17,29; 52,85</t>
+          <t>16,95; 53,29</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -5,57</t>
+          <t>-8,83; -5,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -6,35</t>
+          <t>-9,52; -6,19</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,09</t>
+          <t>-1,76; 5,06</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,22; -1,96</t>
+          <t>-6,4; -2,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -7,44</t>
+          <t>-11,55; -7,6</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,24; 26,17</t>
+          <t>10,65; 26,66</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -4,23</t>
+          <t>-7,08; -4,27</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -7,39</t>
+          <t>-10,22; -7,51</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,47; 16,41</t>
+          <t>5,67; 16,7</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-48,3; -33,4</t>
+          <t>-48,2; -32,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-52,43; -38,1</t>
+          <t>-52,3; -37,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 30,0</t>
+          <t>-8,62; 30,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,33; -7,24</t>
+          <t>-21,95; -7,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-39,75; -27,49</t>
+          <t>-39,95; -28,18</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>36,11; 89,96</t>
+          <t>37,21; 97,83</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-29,32; -19,06</t>
+          <t>-30,0; -19,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-42,76; -33,64</t>
+          <t>-43,13; -33,74</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>24,18; 73,24</t>
+          <t>24,32; 72,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Clase-trans_camb.xlsx
+++ b/data/trans_camb/DC-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
